--- a/ATMP Sheets/GTMP/DDCAR-CD19 T-cells.xlsx
+++ b/ATMP Sheets/GTMP/DDCAR-CD19 T-cells.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>ATMP Cover Sheet</t>
   </si>
@@ -145,9 +145,18 @@
     <t>Patent holder</t>
   </si>
   <si>
+    <t>Mechanism of action already known?</t>
+  </si>
+  <si>
     <t>First in-human?</t>
   </si>
   <si>
+    <t>E-Mail of PI</t>
+  </si>
+  <si>
+    <t>E-Mail of Sponsor</t>
+  </si>
+  <si>
     <t>WP 1</t>
   </si>
   <si>
@@ -212,13 +221,22 @@
   </si>
   <si>
     <t>Expert statement: what was the biggest hurdle experienced?</t>
+  </si>
+  <si>
+    <t>Status Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>in Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -241,9 +259,23 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -311,8 +343,23 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,23 +694,23 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -671,235 +718,241 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+    <row r="24">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+    <row r="29">
+      <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+    <row r="30">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59">
@@ -907,12 +960,24 @@
       <c r="B59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -4669,6 +4734,22 @@
     <row r="1000">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
